--- a/Study2/DataClean_FAVEE_HPP/Demographics.xlsx
+++ b/Study2/DataClean_FAVEE_HPP/Demographics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_0916\SRK\Code\Study2_org\DataCleanPCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_0916\SRK\Code\Study2\DataClean_FAVEE_HPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121F313E-7803-4B47-BCAE-20B23BE1A065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19394FD-F704-4843-9A12-EA8967EB6309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUM" sheetId="9" r:id="rId1"/>
@@ -1274,7 +1274,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC61" sqref="AC61"/>
+      <selection pane="bottomLeft" activeCell="AA61" sqref="AA61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6699,7 +6699,7 @@
         <v>541</v>
       </c>
       <c r="Z55" s="18">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="AA55" s="18">
         <v>315</v>
@@ -6803,7 +6803,7 @@
         <v>601</v>
       </c>
       <c r="Z56" s="18">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AA56" s="18">
         <v>397</v>
@@ -14889,18 +14889,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15088,13 +15088,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A23E58-CF9C-4D12-80D6-79C9DECA2FEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{453EF8A9-678D-456F-8A6C-E7C00B4DFB69}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{453EF8A9-678D-456F-8A6C-E7C00B4DFB69}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A23E58-CF9C-4D12-80D6-79C9DECA2FEC}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/Study2/DataClean_FAVEE_HPP/Demographics.xlsx
+++ b/Study2/DataClean_FAVEE_HPP/Demographics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_0916\SRK\Code\Study2\DataClean_FAVEE_HPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SRK\Code\Study2\DataClean_FAVEE_HPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19394FD-F704-4843-9A12-EA8967EB6309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDFC597-5C86-4D8F-A29A-F9DB81DFC4DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,24 +23,11 @@
     <definedName name="_Hlk120287624" localSheetId="0">SUM!$X$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="195">
   <si>
     <t>Gender</t>
   </si>
@@ -717,12 +704,24 @@
     <t>Study1:Categorical model</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>Data exclusions</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>All SUM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Study2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,8 +823,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -868,6 +873,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -883,7 +900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -994,6 +1011,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1270,11 +1314,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0EC4AC-F9C2-4FDD-9692-083F8D73B903}">
-  <dimension ref="A1:AH56"/>
+  <dimension ref="A1:AJ57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA61" sqref="AA61"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA62" sqref="AA62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6026,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="26" t="s">
         <v>167</v>
       </c>
@@ -6127,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="26" t="s">
         <v>168</v>
       </c>
@@ -6228,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="26" t="s">
         <v>107</v>
       </c>
@@ -6326,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="26" t="s">
         <v>108</v>
       </c>
@@ -6424,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="26" t="s">
         <v>178</v>
       </c>
@@ -6522,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="26" t="s">
         <v>104</v>
       </c>
@@ -6622,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
         <v>143</v>
       </c>
@@ -6726,83 +6770,83 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="37">
         <v>721</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="37">
         <v>1065</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="37">
         <v>60</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="42">
         <v>14</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="37">
         <v>602</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="37">
         <v>641</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="38">
         <v>629</v>
       </c>
-      <c r="J56" s="18">
+      <c r="J56" s="37">
         <v>807</v>
       </c>
-      <c r="K56" s="18">
+      <c r="K56" s="37">
         <v>602</v>
       </c>
-      <c r="L56" s="18">
+      <c r="L56" s="37">
         <v>603</v>
       </c>
-      <c r="M56" s="18">
+      <c r="M56" s="37">
         <v>663</v>
       </c>
-      <c r="N56" s="18">
+      <c r="N56" s="37">
         <v>603</v>
       </c>
-      <c r="O56" s="18">
+      <c r="O56" s="37">
         <v>803</v>
       </c>
-      <c r="P56" s="18">
+      <c r="P56" s="37">
         <v>665</v>
       </c>
-      <c r="Q56" s="18">
+      <c r="Q56" s="37">
         <v>6128</v>
       </c>
-      <c r="R56" s="18">
+      <c r="R56" s="37">
         <v>672</v>
       </c>
-      <c r="S56" s="18">
+      <c r="S56" s="37">
         <v>608</v>
       </c>
-      <c r="T56" s="18">
+      <c r="T56" s="37">
         <v>630</v>
       </c>
-      <c r="U56" s="18">
+      <c r="U56" s="37">
         <v>600</v>
       </c>
-      <c r="V56" s="18">
+      <c r="V56" s="37">
         <v>627</v>
       </c>
-      <c r="W56" s="18">
+      <c r="W56" s="37">
         <v>601</v>
       </c>
-      <c r="X56" s="18">
+      <c r="X56" s="37">
         <v>601</v>
       </c>
-      <c r="Y56" s="18">
+      <c r="Y56" s="37">
         <v>601</v>
       </c>
-      <c r="Z56" s="18">
+      <c r="Z56" s="38">
         <v>229</v>
       </c>
       <c r="AA56" s="18">
@@ -6814,7 +6858,7 @@
       <c r="AC56" s="18">
         <v>119</v>
       </c>
-      <c r="AD56" s="18">
+      <c r="AD56" s="37">
         <v>242</v>
       </c>
       <c r="AE56" s="18">
@@ -6823,11 +6867,156 @@
       <c r="AF56" s="18">
         <v>208</v>
       </c>
-      <c r="AG56" s="18">
-        <v>364</v>
-      </c>
-      <c r="AH56" s="18">
+      <c r="AG56" s="39">
+        <v>380</v>
+      </c>
+      <c r="AH56" s="37">
         <v>44</v>
+      </c>
+      <c r="AI56" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ56" s="40">
+        <v>20427</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B57" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" s="12">
+        <f>C56-C55</f>
+        <v>129</v>
+      </c>
+      <c r="D57" s="12">
+        <f>D56-D55</f>
+        <v>248</v>
+      </c>
+      <c r="E57" s="12">
+        <f t="shared" ref="E57:AH57" si="0">E56-E55</f>
+        <v>1</v>
+      </c>
+      <c r="F57" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="41">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="H57" s="41">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="I57" s="41">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="J57" s="41">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="K57" s="41">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="L57" s="41">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="M57" s="41">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N57" s="41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="O57" s="41">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="P57" s="41">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="Q57" s="41">
+        <f t="shared" si="0"/>
+        <v>1377</v>
+      </c>
+      <c r="R57" s="41">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="S57" s="41">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="T57" s="41">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="U57" s="41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="V57" s="41">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="W57" s="41">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="X57" s="41">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="Y57" s="41">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="Z57" s="41">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AA57" s="12">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="AB57" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AC57" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AD57" s="41">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AE57" s="12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AF57" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AG57" s="41">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AH57" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI57" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ57" s="43">
+        <v>2441</v>
       </c>
     </row>
   </sheetData>

--- a/Study2/DataClean_FAVEE_HPP/Demographics.xlsx
+++ b/Study2/DataClean_FAVEE_HPP/Demographics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SRK\Code\Study2\DataClean_FAVEE_HPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SRK\github\FAVEE-HPP\Study2\DataClean_FAVEE_HPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDFC597-5C86-4D8F-A29A-F9DB81DFC4DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF47920-41C0-4193-B0DC-D9BFA63B95E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="196">
   <si>
     <t>Gender</t>
   </si>
@@ -714,6 +714,10 @@
   </si>
   <si>
     <t>Study2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mosuo(data points)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -997,21 +1001,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,6 +1027,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1317,8 +1321,8 @@
   <dimension ref="A1:AJ57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA62" sqref="AA62"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1350,64 +1354,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="30" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32" t="s">
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
       <c r="AH1" s="31" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="29" t="s">
         <v>125</v>
       </c>
@@ -1472,7 +1476,7 @@
         <v>142</v>
       </c>
       <c r="Z2" s="29" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="AA2" s="29" t="s">
         <v>180</v>
@@ -6774,79 +6778,79 @@
       <c r="A56" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="32">
         <v>721</v>
       </c>
-      <c r="D56" s="37">
+      <c r="D56" s="32">
         <v>1065</v>
       </c>
-      <c r="E56" s="37">
+      <c r="E56" s="32">
         <v>60</v>
       </c>
-      <c r="F56" s="42">
+      <c r="F56" s="37">
         <v>14</v>
       </c>
-      <c r="G56" s="37">
+      <c r="G56" s="32">
         <v>602</v>
       </c>
-      <c r="H56" s="37">
+      <c r="H56" s="32">
         <v>641</v>
       </c>
-      <c r="I56" s="38">
+      <c r="I56" s="33">
         <v>629</v>
       </c>
-      <c r="J56" s="37">
+      <c r="J56" s="32">
         <v>807</v>
       </c>
-      <c r="K56" s="37">
+      <c r="K56" s="32">
         <v>602</v>
       </c>
-      <c r="L56" s="37">
+      <c r="L56" s="32">
         <v>603</v>
       </c>
-      <c r="M56" s="37">
+      <c r="M56" s="32">
         <v>663</v>
       </c>
-      <c r="N56" s="37">
+      <c r="N56" s="32">
         <v>603</v>
       </c>
-      <c r="O56" s="37">
+      <c r="O56" s="32">
         <v>803</v>
       </c>
-      <c r="P56" s="37">
+      <c r="P56" s="32">
         <v>665</v>
       </c>
-      <c r="Q56" s="37">
+      <c r="Q56" s="32">
         <v>6128</v>
       </c>
-      <c r="R56" s="37">
+      <c r="R56" s="32">
         <v>672</v>
       </c>
-      <c r="S56" s="37">
+      <c r="S56" s="32">
         <v>608</v>
       </c>
-      <c r="T56" s="37">
+      <c r="T56" s="32">
         <v>630</v>
       </c>
-      <c r="U56" s="37">
+      <c r="U56" s="32">
         <v>600</v>
       </c>
-      <c r="V56" s="37">
+      <c r="V56" s="32">
         <v>627</v>
       </c>
-      <c r="W56" s="37">
+      <c r="W56" s="32">
         <v>601</v>
       </c>
-      <c r="X56" s="37">
+      <c r="X56" s="32">
         <v>601</v>
       </c>
-      <c r="Y56" s="37">
+      <c r="Y56" s="32">
         <v>601</v>
       </c>
-      <c r="Z56" s="38">
+      <c r="Z56" s="33">
         <v>229</v>
       </c>
       <c r="AA56" s="18">
@@ -6858,7 +6862,7 @@
       <c r="AC56" s="18">
         <v>119</v>
       </c>
-      <c r="AD56" s="37">
+      <c r="AD56" s="32">
         <v>242</v>
       </c>
       <c r="AE56" s="18">
@@ -6867,21 +6871,21 @@
       <c r="AF56" s="18">
         <v>208</v>
       </c>
-      <c r="AG56" s="39">
+      <c r="AG56" s="34">
         <v>380</v>
       </c>
-      <c r="AH56" s="37">
+      <c r="AH56" s="32">
         <v>44</v>
       </c>
-      <c r="AI56" s="37" t="s">
+      <c r="AI56" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="AJ56" s="40">
+      <c r="AJ56" s="35">
         <v>20427</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="40" t="s">
         <v>192</v>
       </c>
       <c r="C57" s="12">
@@ -6900,83 +6904,83 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G57" s="41">
+      <c r="G57" s="36">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="H57" s="41">
+      <c r="H57" s="36">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="I57" s="41">
+      <c r="I57" s="36">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="J57" s="41">
+      <c r="J57" s="36">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="K57" s="41">
+      <c r="K57" s="36">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="L57" s="41">
+      <c r="L57" s="36">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="M57" s="41">
+      <c r="M57" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N57" s="41">
+      <c r="N57" s="36">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="O57" s="41">
+      <c r="O57" s="36">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="P57" s="41">
+      <c r="P57" s="36">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="Q57" s="41">
+      <c r="Q57" s="36">
         <f t="shared" si="0"/>
         <v>1377</v>
       </c>
-      <c r="R57" s="41">
+      <c r="R57" s="36">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="S57" s="41">
+      <c r="S57" s="36">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="T57" s="41">
+      <c r="T57" s="36">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="U57" s="41">
+      <c r="U57" s="36">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="V57" s="41">
+      <c r="V57" s="36">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="W57" s="41">
+      <c r="W57" s="36">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="X57" s="41">
+      <c r="X57" s="36">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="Y57" s="41">
+      <c r="Y57" s="36">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="Z57" s="41">
+      <c r="Z57" s="36">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -6992,7 +6996,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AD57" s="41">
+      <c r="AD57" s="36">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -7004,7 +7008,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="AG57" s="41">
+      <c r="AG57" s="36">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -7012,10 +7016,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI57" s="41" t="s">
+      <c r="AI57" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="AJ57" s="43">
+      <c r="AJ57" s="38">
         <v>2441</v>
       </c>
     </row>
@@ -7164,22 +7168,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -15087,12 +15091,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x01010079757D345F4803458DF839514F8B1E7A" ma:contentTypeVersion="11" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="0a3c2dabc23bf672ddb412ada90c0cf5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1d8c5ae1-d6b2-49fc-a340-c9c2864f432c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ce91e7905c813cd5cc8035d4feecaea2" ns2:_="">
     <xsd:import namespace="1d8c5ae1-d6b2-49fc-a340-c9c2864f432c"/>
@@ -15276,6 +15274,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{453EF8A9-678D-456F-8A6C-E7C00B4DFB69}">
   <ds:schemaRefs/>
@@ -15283,13 +15287,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A23E58-CF9C-4D12-80D6-79C9DECA2FEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{636E7BC9-A1EB-47D8-AA75-5C74C9ED3F51}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{636E7BC9-A1EB-47D8-AA75-5C74C9ED3F51}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A23E58-CF9C-4D12-80D6-79C9DECA2FEC}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Study2/DataClean_FAVEE_HPP/Demographics.xlsx
+++ b/Study2/DataClean_FAVEE_HPP/Demographics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SRK\github\FAVEE-HPP\Study2\DataClean_FAVEE_HPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SRK\Code\Study2\DataClean_FAVEE_HPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF47920-41C0-4193-B0DC-D9BFA63B95E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE9A3A3-0DE1-4631-9902-F54CA43D889B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="196">
   <si>
     <t>Gender</t>
   </si>
@@ -717,7 +717,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Mosuo(data points)</t>
+    <t>Survey</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -725,7 +725,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,12 +827,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -904,7 +898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,9 +1001,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1041,6 +1032,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1318,11 +1315,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0EC4AC-F9C2-4FDD-9692-083F8D73B903}">
-  <dimension ref="A1:AJ57"/>
+  <dimension ref="A1:AL57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2"/>
+      <selection pane="bottomLeft" activeCell="AA64" sqref="AA64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1354,64 +1351,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="30" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41" t="s">
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
       <c r="AH1" s="31" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="29" t="s">
         <v>125</v>
       </c>
@@ -1476,7 +1473,7 @@
         <v>142</v>
       </c>
       <c r="Z2" s="29" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="AA2" s="29" t="s">
         <v>180</v>
@@ -6074,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="26" t="s">
         <v>167</v>
       </c>
@@ -6175,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="26" t="s">
         <v>168</v>
       </c>
@@ -6276,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="26" t="s">
         <v>107</v>
       </c>
@@ -6374,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="26" t="s">
         <v>108</v>
       </c>
@@ -6472,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="26" t="s">
         <v>178</v>
       </c>
@@ -6570,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="26" t="s">
         <v>104</v>
       </c>
@@ -6670,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
         <v>143</v>
       </c>
@@ -6774,11 +6771,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="38" t="s">
         <v>147</v>
       </c>
       <c r="C56" s="32">
@@ -6790,7 +6787,7 @@
       <c r="E56" s="32">
         <v>60</v>
       </c>
-      <c r="F56" s="37">
+      <c r="F56" s="36">
         <v>14</v>
       </c>
       <c r="G56" s="32">
@@ -6871,7 +6868,7 @@
       <c r="AF56" s="18">
         <v>208</v>
       </c>
-      <c r="AG56" s="34">
+      <c r="AG56" s="33">
         <v>380</v>
       </c>
       <c r="AH56" s="32">
@@ -6880,12 +6877,18 @@
       <c r="AI56" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="AJ56" s="35">
+      <c r="AJ56" s="34">
         <v>20427</v>
       </c>
-    </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B57" s="40" t="s">
+      <c r="AK56" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL56" s="46">
+        <v>20367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B57" s="39" t="s">
         <v>192</v>
       </c>
       <c r="C57" s="12">
@@ -6904,83 +6907,83 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G57" s="36">
+      <c r="G57" s="35">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="H57" s="36">
+      <c r="H57" s="35">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="I57" s="36">
+      <c r="I57" s="35">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="J57" s="36">
+      <c r="J57" s="35">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="K57" s="36">
+      <c r="K57" s="35">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="L57" s="36">
+      <c r="L57" s="35">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="M57" s="36">
+      <c r="M57" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N57" s="36">
+      <c r="N57" s="35">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="O57" s="36">
+      <c r="O57" s="35">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="P57" s="36">
+      <c r="P57" s="35">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="Q57" s="36">
+      <c r="Q57" s="35">
         <f t="shared" si="0"/>
         <v>1377</v>
       </c>
-      <c r="R57" s="36">
+      <c r="R57" s="35">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="S57" s="36">
+      <c r="S57" s="35">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="T57" s="36">
+      <c r="T57" s="35">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="U57" s="36">
+      <c r="U57" s="35">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="V57" s="36">
+      <c r="V57" s="35">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="W57" s="36">
+      <c r="W57" s="35">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="X57" s="36">
+      <c r="X57" s="35">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="Y57" s="36">
+      <c r="Y57" s="35">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="Z57" s="36">
+      <c r="Z57" s="35">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -6996,7 +6999,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AD57" s="36">
+      <c r="AD57" s="35">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -7008,7 +7011,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="AG57" s="36">
+      <c r="AG57" s="35">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -7016,11 +7019,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI57" s="36" t="s">
+      <c r="AI57" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="AJ57" s="38">
+      <c r="AJ57" s="37">
         <v>2441</v>
+      </c>
+      <c r="AL57" s="46">
+        <v>2818</v>
       </c>
     </row>
   </sheetData>
@@ -7168,22 +7174,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45" t="s">
+      <c r="D1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -15091,6 +15097,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x01010079757D345F4803458DF839514F8B1E7A" ma:contentTypeVersion="11" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="0a3c2dabc23bf672ddb412ada90c0cf5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1d8c5ae1-d6b2-49fc-a340-c9c2864f432c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ce91e7905c813cd5cc8035d4feecaea2" ns2:_="">
     <xsd:import namespace="1d8c5ae1-d6b2-49fc-a340-c9c2864f432c"/>
@@ -15274,12 +15286,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{453EF8A9-678D-456F-8A6C-E7C00B4DFB69}">
   <ds:schemaRefs/>
@@ -15287,13 +15293,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{636E7BC9-A1EB-47D8-AA75-5C74C9ED3F51}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A23E58-CF9C-4D12-80D6-79C9DECA2FEC}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A23E58-CF9C-4D12-80D6-79C9DECA2FEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{636E7BC9-A1EB-47D8-AA75-5C74C9ED3F51}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>